--- a/Code/Results/Cases/Case_1_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003031627655743</v>
+        <v>1.029527156703935</v>
       </c>
       <c r="D2">
-        <v>1.039807607320447</v>
+        <v>1.047897262884342</v>
       </c>
       <c r="E2">
-        <v>1.009058928824379</v>
+        <v>1.02935018692976</v>
       </c>
       <c r="F2">
-        <v>1.036322555536252</v>
+        <v>1.052629636409509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052394970850784</v>
+        <v>1.04074322205546</v>
       </c>
       <c r="J2">
-        <v>1.02512203982033</v>
+        <v>1.03467343925282</v>
       </c>
       <c r="K2">
-        <v>1.050738876358681</v>
+        <v>1.050658617626625</v>
       </c>
       <c r="L2">
-        <v>1.020393484723533</v>
+        <v>1.032164353328869</v>
       </c>
       <c r="M2">
-        <v>1.047298030608457</v>
+        <v>1.055377839119631</v>
       </c>
       <c r="N2">
-        <v>1.026577830700016</v>
+        <v>1.036142794215261</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00722770604127</v>
+        <v>1.03041339205753</v>
       </c>
       <c r="D3">
-        <v>1.042850022032397</v>
+        <v>1.048549689405667</v>
       </c>
       <c r="E3">
-        <v>1.012387653823025</v>
+        <v>1.030101221923502</v>
       </c>
       <c r="F3">
-        <v>1.040093215948962</v>
+        <v>1.053474526229937</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053764408372286</v>
+        <v>1.040967879586353</v>
       </c>
       <c r="J3">
-        <v>1.027523257145078</v>
+        <v>1.03520106765096</v>
       </c>
       <c r="K3">
-        <v>1.052962484051563</v>
+        <v>1.051123394108979</v>
       </c>
       <c r="L3">
-        <v>1.022864448410486</v>
+        <v>1.032723669025731</v>
       </c>
       <c r="M3">
-        <v>1.050237563676568</v>
+        <v>1.056035530625677</v>
       </c>
       <c r="N3">
-        <v>1.028982458028789</v>
+        <v>1.036671171906247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009890188091511</v>
+        <v>1.030987354571439</v>
       </c>
       <c r="D4">
-        <v>1.044782620160183</v>
+        <v>1.04897208449352</v>
       </c>
       <c r="E4">
-        <v>1.014505696244974</v>
+        <v>1.030588014556062</v>
       </c>
       <c r="F4">
-        <v>1.042490969731446</v>
+        <v>1.054021970766596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054623033362422</v>
+        <v>1.04111207362751</v>
       </c>
       <c r="J4">
-        <v>1.0290442412961</v>
+        <v>1.035542356000641</v>
       </c>
       <c r="K4">
-        <v>1.054369009350939</v>
+        <v>1.051423680766945</v>
       </c>
       <c r="L4">
-        <v>1.024432146766237</v>
+        <v>1.033085743098407</v>
       </c>
       <c r="M4">
-        <v>1.052102249748031</v>
+        <v>1.05646119811624</v>
       </c>
       <c r="N4">
-        <v>1.030505602151765</v>
+        <v>1.03701294492453</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010997304766547</v>
+        <v>1.031228768949245</v>
       </c>
       <c r="D5">
-        <v>1.045586684691737</v>
+        <v>1.049149713059894</v>
       </c>
       <c r="E5">
-        <v>1.015387802265481</v>
+        <v>1.030792857554782</v>
       </c>
       <c r="F5">
-        <v>1.043489203831987</v>
+        <v>1.054252292793535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054977551208603</v>
+        <v>1.04117241086476</v>
       </c>
       <c r="J5">
-        <v>1.029676037790602</v>
+        <v>1.035685803166516</v>
       </c>
       <c r="K5">
-        <v>1.05495276646161</v>
+        <v>1.051549811088887</v>
       </c>
       <c r="L5">
-        <v>1.025083956068847</v>
+        <v>1.033237995985909</v>
       </c>
       <c r="M5">
-        <v>1.052877455267925</v>
+        <v>1.056640170408564</v>
       </c>
       <c r="N5">
-        <v>1.031138295869757</v>
+        <v>1.037156595801834</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011182491404372</v>
+        <v>1.031269310515782</v>
       </c>
       <c r="D6">
-        <v>1.045721204608686</v>
+        <v>1.049179540774152</v>
       </c>
       <c r="E6">
-        <v>1.015535431468398</v>
+        <v>1.030827263006107</v>
       </c>
       <c r="F6">
-        <v>1.043656246643165</v>
+        <v>1.05429097516241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055036701966352</v>
+        <v>1.041182525196682</v>
       </c>
       <c r="J6">
-        <v>1.029781678222156</v>
+        <v>1.035709886758095</v>
       </c>
       <c r="K6">
-        <v>1.055050344593853</v>
+        <v>1.051570982425352</v>
       </c>
       <c r="L6">
-        <v>1.025192978542024</v>
+        <v>1.033263562046881</v>
       </c>
       <c r="M6">
-        <v>1.053007111863367</v>
+        <v>1.056670221869626</v>
       </c>
       <c r="N6">
-        <v>1.031244086322841</v>
+        <v>1.037180713594876</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009905028802157</v>
+        <v>1.030990579890181</v>
       </c>
       <c r="D7">
-        <v>1.044793396816474</v>
+        <v>1.04897445776643</v>
       </c>
       <c r="E7">
-        <v>1.0145175153308</v>
+        <v>1.03059075091255</v>
       </c>
       <c r="F7">
-        <v>1.04250434622929</v>
+        <v>1.054025047650207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054627795610667</v>
+        <v>1.041112880965428</v>
       </c>
       <c r="J7">
-        <v>1.029052713071049</v>
+        <v>1.035544272869779</v>
       </c>
       <c r="K7">
-        <v>1.054376838952092</v>
+        <v>1.051425366561091</v>
       </c>
       <c r="L7">
-        <v>1.024440884489446</v>
+        <v>1.033087777365292</v>
       </c>
       <c r="M7">
-        <v>1.05211264198658</v>
+        <v>1.056463589469555</v>
       </c>
       <c r="N7">
-        <v>1.030514085957606</v>
+        <v>1.037014864515843</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004460872828228</v>
+        <v>1.029826557912735</v>
       </c>
       <c r="D8">
-        <v>1.04084341130402</v>
+        <v>1.048117704496247</v>
       </c>
       <c r="E8">
-        <v>1.010191477827273</v>
+        <v>1.029603831402106</v>
       </c>
       <c r="F8">
-        <v>1.037605773618208</v>
+        <v>1.052915015650669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052863553732862</v>
+        <v>1.040819388817003</v>
       </c>
       <c r="J8">
-        <v>1.025940461282108</v>
+        <v>1.034851778427493</v>
       </c>
       <c r="K8">
-        <v>1.051497157079145</v>
+        <v>1.050815784399343</v>
       </c>
       <c r="L8">
-        <v>1.021235146278532</v>
+        <v>1.032353342947382</v>
       </c>
       <c r="M8">
-        <v>1.04829935045413</v>
+        <v>1.055600087993976</v>
       </c>
       <c r="N8">
-        <v>1.027397414414144</v>
+        <v>1.036321386652018</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9944445253374198</v>
+        <v>1.027779358726037</v>
       </c>
       <c r="D9">
-        <v>1.033596094594031</v>
+        <v>1.046609846067927</v>
       </c>
       <c r="E9">
-        <v>1.002281145848879</v>
+        <v>1.02787112511815</v>
       </c>
       <c r="F9">
-        <v>1.028637109979901</v>
+        <v>1.050964779796188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04953783786844</v>
+        <v>1.040293258221432</v>
       </c>
       <c r="J9">
-        <v>1.020194998604008</v>
+        <v>1.033630626330165</v>
       </c>
       <c r="K9">
-        <v>1.046166639602531</v>
+        <v>1.049738197224372</v>
       </c>
       <c r="L9">
-        <v>1.015337321154895</v>
+        <v>1.031060450367756</v>
       </c>
       <c r="M9">
-        <v>1.041282048768236</v>
+        <v>1.054079301062544</v>
       </c>
       <c r="N9">
-        <v>1.021643792520027</v>
+        <v>1.035098500378644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9874533024978241</v>
+        <v>1.026417296788199</v>
       </c>
       <c r="D10">
-        <v>1.028555631235808</v>
+        <v>1.04560595519979</v>
       </c>
       <c r="E10">
-        <v>0.9967958060514551</v>
+        <v>1.026720366639369</v>
       </c>
       <c r="F10">
-        <v>1.022410660154971</v>
+        <v>1.0496686201824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047165483089856</v>
+        <v>1.039936526772612</v>
       </c>
       <c r="J10">
-        <v>1.016173714895578</v>
+        <v>1.032815994440163</v>
       </c>
       <c r="K10">
-        <v>1.042427760389332</v>
+        <v>1.049017580290001</v>
       </c>
       <c r="L10">
-        <v>1.011223155213728</v>
+        <v>1.030199451216849</v>
       </c>
       <c r="M10">
-        <v>1.036386738617182</v>
+        <v>1.053066082850552</v>
       </c>
       <c r="N10">
-        <v>1.017616798127484</v>
+        <v>1.034282711617919</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9843445980335136</v>
+        <v>1.025828174340049</v>
       </c>
       <c r="D11">
-        <v>1.026319681237167</v>
+        <v>1.045171601029418</v>
       </c>
       <c r="E11">
-        <v>0.9943659030867493</v>
+        <v>1.026223134110194</v>
       </c>
       <c r="F11">
-        <v>1.019650871988655</v>
+        <v>1.049108340045995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046099159045036</v>
+        <v>1.039780649989896</v>
       </c>
       <c r="J11">
-        <v>1.01438348110135</v>
+        <v>1.032463137986732</v>
       </c>
       <c r="K11">
-        <v>1.040761749013652</v>
+        <v>1.048705033652389</v>
       </c>
       <c r="L11">
-        <v>1.009394858161344</v>
+        <v>1.02982686461728</v>
       </c>
       <c r="M11">
-        <v>1.034211478743403</v>
+        <v>1.05262751947718</v>
       </c>
       <c r="N11">
-        <v>1.015824021995925</v>
+        <v>1.033929354067851</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.983177004592637</v>
+        <v>1.025609448359398</v>
       </c>
       <c r="D12">
-        <v>1.02548077999673</v>
+        <v>1.045010314975294</v>
       </c>
       <c r="E12">
-        <v>0.9934547022182774</v>
+        <v>1.02603859969004</v>
       </c>
       <c r="F12">
-        <v>1.018615739185499</v>
+        <v>1.048900373974792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045697001535484</v>
+        <v>1.039722539376374</v>
       </c>
       <c r="J12">
-        <v>1.013710812007231</v>
+        <v>1.03233205514863</v>
       </c>
       <c r="K12">
-        <v>1.040135565740185</v>
+        <v>1.048588863879165</v>
       </c>
       <c r="L12">
-        <v>1.008708383387182</v>
+        <v>1.029688505385443</v>
       </c>
       <c r="M12">
-        <v>1.033394775072678</v>
+        <v>1.052464644138104</v>
       </c>
       <c r="N12">
-        <v>1.015150397634537</v>
+        <v>1.033798085077083</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9834280511021525</v>
+        <v>1.025656361264345</v>
       </c>
       <c r="D13">
-        <v>1.025661111727072</v>
+        <v>1.045044908980804</v>
       </c>
       <c r="E13">
-        <v>0.9936505550800109</v>
+        <v>1.026078175688881</v>
       </c>
       <c r="F13">
-        <v>1.018838239934654</v>
+        <v>1.04894497672486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045783544149667</v>
+        <v>1.039735013837893</v>
       </c>
       <c r="J13">
-        <v>1.013855455731504</v>
+        <v>1.032360173579499</v>
       </c>
       <c r="K13">
-        <v>1.04027022163585</v>
+        <v>1.048613786109802</v>
       </c>
       <c r="L13">
-        <v>1.008855973269439</v>
+        <v>1.029718182260939</v>
       </c>
       <c r="M13">
-        <v>1.033570361330989</v>
+        <v>1.052499580221281</v>
       </c>
       <c r="N13">
-        <v>1.015295246769489</v>
+        <v>1.033826243439349</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9842483510611926</v>
+        <v>1.025810092328274</v>
       </c>
       <c r="D14">
-        <v>1.026250510225239</v>
+        <v>1.04515826799424</v>
       </c>
       <c r="E14">
-        <v>0.9942907613603804</v>
+        <v>1.026207877166661</v>
       </c>
       <c r="F14">
-        <v>1.019565514816664</v>
+        <v>1.049091146497851</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046066041792306</v>
+        <v>1.039775850849142</v>
       </c>
       <c r="J14">
-        <v>1.014328037091144</v>
+        <v>1.032452302963335</v>
       </c>
       <c r="K14">
-        <v>1.040710140197245</v>
+        <v>1.048695432566292</v>
       </c>
       <c r="L14">
-        <v>1.009338266127933</v>
+        <v>1.029815427058218</v>
       </c>
       <c r="M14">
-        <v>1.034144149761793</v>
+        <v>1.052614055598656</v>
       </c>
       <c r="N14">
-        <v>1.015768499248866</v>
+        <v>1.033918503657477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9847520379493252</v>
+        <v>1.025904824442802</v>
       </c>
       <c r="D15">
-        <v>1.026612538255145</v>
+        <v>1.045228119223177</v>
       </c>
       <c r="E15">
-        <v>0.9946840578727105</v>
+        <v>1.02628781176154</v>
       </c>
       <c r="F15">
-        <v>1.020012270436155</v>
+        <v>1.049181226042808</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04623928623003</v>
+        <v>1.039800983937912</v>
       </c>
       <c r="J15">
-        <v>1.01461817977891</v>
+        <v>1.032509064798502</v>
       </c>
       <c r="K15">
-        <v>1.040980205497867</v>
+        <v>1.048745727606166</v>
       </c>
       <c r="L15">
-        <v>1.009634436757183</v>
+        <v>1.029875347596526</v>
       </c>
       <c r="M15">
-        <v>1.034496513493502</v>
+        <v>1.05268459123167</v>
       </c>
       <c r="N15">
-        <v>1.016059053972528</v>
+        <v>1.03397534610096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.987657846721856</v>
+        <v>1.02645640890477</v>
       </c>
       <c r="D16">
-        <v>1.02870286966968</v>
+        <v>1.045634789110624</v>
       </c>
       <c r="E16">
-        <v>0.9969558838081868</v>
+        <v>1.026753388657601</v>
       </c>
       <c r="F16">
-        <v>1.022592438003668</v>
+        <v>1.049705824631044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047235410857684</v>
+        <v>1.039946842164925</v>
       </c>
       <c r="J16">
-        <v>1.016291466415765</v>
+        <v>1.0328394100226</v>
       </c>
       <c r="K16">
-        <v>1.042537312944093</v>
+        <v>1.049038312246754</v>
       </c>
       <c r="L16">
-        <v>1.011343479018914</v>
+        <v>1.030224183547472</v>
       </c>
       <c r="M16">
-        <v>1.036529901973363</v>
+        <v>1.053095192505153</v>
       </c>
       <c r="N16">
-        <v>1.017734716868335</v>
+        <v>1.034306160453168</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9894583334199004</v>
+        <v>1.026802580686808</v>
       </c>
       <c r="D17">
-        <v>1.02999954465045</v>
+        <v>1.045889973911239</v>
       </c>
       <c r="E17">
-        <v>0.99836601236819</v>
+        <v>1.0270457159265</v>
       </c>
       <c r="F17">
-        <v>1.024193543300348</v>
+        <v>1.050035151277513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047849649507744</v>
+        <v>1.040037958291679</v>
       </c>
       <c r="J17">
-        <v>1.017327727846643</v>
+        <v>1.033046596721445</v>
       </c>
       <c r="K17">
-        <v>1.043501253415654</v>
+        <v>1.049221705966429</v>
       </c>
       <c r="L17">
-        <v>1.01240275209128</v>
+        <v>1.030443062012951</v>
       </c>
       <c r="M17">
-        <v>1.037790265270256</v>
+        <v>1.053352797598092</v>
       </c>
       <c r="N17">
-        <v>1.018772449909307</v>
+        <v>1.03451364138089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9905007129114641</v>
+        <v>1.027004560364005</v>
       </c>
       <c r="D18">
-        <v>1.030750745829449</v>
+        <v>1.046038851304879</v>
       </c>
       <c r="E18">
-        <v>0.9991832660745322</v>
+        <v>1.027216327015157</v>
       </c>
       <c r="F18">
-        <v>1.025121327514888</v>
+        <v>1.050227334973722</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048204168577536</v>
+        <v>1.040090968719322</v>
       </c>
       <c r="J18">
-        <v>1.017927458452684</v>
+        <v>1.033167434002151</v>
       </c>
       <c r="K18">
-        <v>1.044058983784163</v>
+        <v>1.049328626667384</v>
       </c>
       <c r="L18">
-        <v>1.013016112317775</v>
+        <v>1.030570752394822</v>
       </c>
       <c r="M18">
-        <v>1.038520079320951</v>
+        <v>1.053503070279212</v>
       </c>
       <c r="N18">
-        <v>1.019373032201598</v>
+        <v>1.034634650264395</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9908548308706884</v>
+        <v>1.027073440952229</v>
       </c>
       <c r="D19">
-        <v>1.031006026543665</v>
+        <v>1.046089620093518</v>
       </c>
       <c r="E19">
-        <v>0.9994610498400063</v>
+        <v>1.027274518161209</v>
       </c>
       <c r="F19">
-        <v>1.02543665439194</v>
+        <v>1.050292880371476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048324419394698</v>
+        <v>1.040109020802801</v>
       </c>
       <c r="J19">
-        <v>1.01813116321407</v>
+        <v>1.033208634456137</v>
       </c>
       <c r="K19">
-        <v>1.044248397115601</v>
+        <v>1.049365075384815</v>
       </c>
       <c r="L19">
-        <v>1.013224499335298</v>
+        <v>1.030614295256874</v>
       </c>
       <c r="M19">
-        <v>1.038768033040796</v>
+        <v>1.053554312044414</v>
       </c>
       <c r="N19">
-        <v>1.019577026247111</v>
+        <v>1.034675909227751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9892659709888317</v>
+        <v>1.026765433150005</v>
       </c>
       <c r="D20">
-        <v>1.029860956494957</v>
+        <v>1.045862591631415</v>
       </c>
       <c r="E20">
-        <v>0.9982152648531326</v>
+        <v>1.0270143414629</v>
       </c>
       <c r="F20">
-        <v>1.02402239539726</v>
+        <v>1.049999808008588</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047784137457402</v>
+        <v>1.040028196462226</v>
       </c>
       <c r="J20">
-        <v>1.017217035633074</v>
+        <v>1.033024368701511</v>
       </c>
       <c r="K20">
-        <v>1.043398301223595</v>
+        <v>1.049202034692724</v>
       </c>
       <c r="L20">
-        <v>1.012289569440624</v>
+        <v>1.030419576112199</v>
       </c>
       <c r="M20">
-        <v>1.037655594583336</v>
+        <v>1.053325157344472</v>
       </c>
       <c r="N20">
-        <v>1.018661600500097</v>
+        <v>1.034491381794618</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9840071541648736</v>
+        <v>1.025764819581882</v>
       </c>
       <c r="D21">
-        <v>1.0260771810041</v>
+        <v>1.045124885128864</v>
       </c>
       <c r="E21">
-        <v>0.9941024780985525</v>
+        <v>1.026169678887805</v>
       </c>
       <c r="F21">
-        <v>1.019351631013919</v>
+        <v>1.049048099072322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045983022761291</v>
+        <v>1.039763831186706</v>
       </c>
       <c r="J21">
-        <v>1.014189088929997</v>
+        <v>1.032425173595476</v>
       </c>
       <c r="K21">
-        <v>1.040580800473598</v>
+        <v>1.048671391808373</v>
       </c>
       <c r="L21">
-        <v>1.009196448912638</v>
+        <v>1.029786789885135</v>
       </c>
       <c r="M21">
-        <v>1.033975427026601</v>
+        <v>1.052580344705702</v>
       </c>
       <c r="N21">
-        <v>1.015629353765392</v>
+        <v>1.033891335762804</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9806258445338365</v>
+        <v>1.025136275209615</v>
       </c>
       <c r="D22">
-        <v>1.023649558164937</v>
+        <v>1.0446613639532</v>
       </c>
       <c r="E22">
-        <v>0.9914664742872414</v>
+        <v>1.025639531815348</v>
       </c>
       <c r="F22">
-        <v>1.01635669091166</v>
+        <v>1.048450572831547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044815317472283</v>
+        <v>1.039596393631674</v>
       </c>
       <c r="J22">
-        <v>1.012240586333254</v>
+        <v>1.032048342437198</v>
       </c>
       <c r="K22">
-        <v>1.038766633558664</v>
+        <v>1.048337316288082</v>
       </c>
       <c r="L22">
-        <v>1.007208898892385</v>
+        <v>1.029389141071249</v>
       </c>
       <c r="M22">
-        <v>1.03161093646523</v>
+        <v>1.052112206255297</v>
       </c>
       <c r="N22">
-        <v>1.013678084071465</v>
+        <v>1.033513969461058</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9824256650475945</v>
+        <v>1.025469422969199</v>
       </c>
       <c r="D23">
-        <v>1.024941216532877</v>
+        <v>1.044907055877491</v>
       </c>
       <c r="E23">
-        <v>0.9928687640955556</v>
+        <v>1.025920484516861</v>
       </c>
       <c r="F23">
-        <v>1.017950045627507</v>
+        <v>1.048767251517928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045437755890427</v>
+        <v>1.039685270894593</v>
       </c>
       <c r="J23">
-        <v>1.013277880595161</v>
+        <v>1.032248116248614</v>
       </c>
       <c r="K23">
-        <v>1.039732503760289</v>
+        <v>1.048514457247175</v>
       </c>
       <c r="L23">
-        <v>1.008266706814934</v>
+        <v>1.029599922016912</v>
       </c>
       <c r="M23">
-        <v>1.032869325100938</v>
+        <v>1.052360360108077</v>
       </c>
       <c r="N23">
-        <v>1.014716851410204</v>
+        <v>1.033714026974201</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9893529153919394</v>
+        <v>1.026782218326703</v>
       </c>
       <c r="D24">
-        <v>1.029923594337343</v>
+        <v>1.045874964405064</v>
       </c>
       <c r="E24">
-        <v>0.9982833973625793</v>
+        <v>1.027028517918959</v>
       </c>
       <c r="F24">
-        <v>1.024099748627353</v>
+        <v>1.050015777823241</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047813751125057</v>
+        <v>1.04003260783327</v>
       </c>
       <c r="J24">
-        <v>1.01726706718956</v>
+        <v>1.033034412621699</v>
       </c>
       <c r="K24">
-        <v>1.043444834834823</v>
+        <v>1.04921092344845</v>
       </c>
       <c r="L24">
-        <v>1.012340725678466</v>
+        <v>1.030430188311118</v>
       </c>
       <c r="M24">
-        <v>1.037716462928789</v>
+        <v>1.053337646736102</v>
       </c>
       <c r="N24">
-        <v>1.018711703107133</v>
+        <v>1.034501439978325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970870244329927</v>
+        <v>1.028308131971289</v>
       </c>
       <c r="D25">
-        <v>1.035505295398811</v>
+        <v>1.046999433611614</v>
       </c>
       <c r="E25">
-        <v>1.00436205429563</v>
+        <v>1.028318306330372</v>
       </c>
       <c r="F25">
-        <v>1.030997713647814</v>
+        <v>1.051468265944262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050424249971099</v>
+        <v>1.040430332608112</v>
       </c>
       <c r="J25">
-        <v>1.021712821084542</v>
+        <v>1.033946421814584</v>
       </c>
       <c r="K25">
-        <v>1.047576351688902</v>
+        <v>1.050017177275407</v>
       </c>
       <c r="L25">
-        <v>1.016893030295823</v>
+        <v>1.03139453559044</v>
       </c>
       <c r="M25">
-        <v>1.043133159168247</v>
+        <v>1.054472354992832</v>
       </c>
       <c r="N25">
-        <v>1.023163770482581</v>
+        <v>1.035414744328873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029527156703935</v>
+        <v>1.003031627655742</v>
       </c>
       <c r="D2">
-        <v>1.047897262884342</v>
+        <v>1.039807607320447</v>
       </c>
       <c r="E2">
-        <v>1.02935018692976</v>
+        <v>1.009058928824379</v>
       </c>
       <c r="F2">
-        <v>1.052629636409509</v>
+        <v>1.036322555536251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04074322205546</v>
+        <v>1.052394970850783</v>
       </c>
       <c r="J2">
-        <v>1.03467343925282</v>
+        <v>1.025122039820329</v>
       </c>
       <c r="K2">
-        <v>1.050658617626625</v>
+        <v>1.05073887635868</v>
       </c>
       <c r="L2">
-        <v>1.032164353328869</v>
+        <v>1.020393484723532</v>
       </c>
       <c r="M2">
-        <v>1.055377839119631</v>
+        <v>1.047298030608456</v>
       </c>
       <c r="N2">
-        <v>1.036142794215261</v>
+        <v>1.026577830700016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03041339205753</v>
+        <v>1.00722770604127</v>
       </c>
       <c r="D3">
-        <v>1.048549689405667</v>
+        <v>1.042850022032397</v>
       </c>
       <c r="E3">
-        <v>1.030101221923502</v>
+        <v>1.012387653823025</v>
       </c>
       <c r="F3">
-        <v>1.053474526229937</v>
+        <v>1.040093215948962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040967879586353</v>
+        <v>1.053764408372286</v>
       </c>
       <c r="J3">
-        <v>1.03520106765096</v>
+        <v>1.027523257145078</v>
       </c>
       <c r="K3">
-        <v>1.051123394108979</v>
+        <v>1.052962484051564</v>
       </c>
       <c r="L3">
-        <v>1.032723669025731</v>
+        <v>1.022864448410485</v>
       </c>
       <c r="M3">
-        <v>1.056035530625677</v>
+        <v>1.050237563676568</v>
       </c>
       <c r="N3">
-        <v>1.036671171906247</v>
+        <v>1.028982458028789</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030987354571439</v>
+        <v>1.009890188091511</v>
       </c>
       <c r="D4">
-        <v>1.04897208449352</v>
+        <v>1.044782620160182</v>
       </c>
       <c r="E4">
-        <v>1.030588014556062</v>
+        <v>1.014505696244974</v>
       </c>
       <c r="F4">
-        <v>1.054021970766596</v>
+        <v>1.042490969731446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04111207362751</v>
+        <v>1.054623033362422</v>
       </c>
       <c r="J4">
-        <v>1.035542356000641</v>
+        <v>1.0290442412961</v>
       </c>
       <c r="K4">
-        <v>1.051423680766945</v>
+        <v>1.054369009350939</v>
       </c>
       <c r="L4">
-        <v>1.033085743098407</v>
+        <v>1.024432146766236</v>
       </c>
       <c r="M4">
-        <v>1.05646119811624</v>
+        <v>1.052102249748031</v>
       </c>
       <c r="N4">
-        <v>1.03701294492453</v>
+        <v>1.030505602151764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031228768949245</v>
+        <v>1.010997304766547</v>
       </c>
       <c r="D5">
-        <v>1.049149713059894</v>
+        <v>1.045586684691737</v>
       </c>
       <c r="E5">
-        <v>1.030792857554782</v>
+        <v>1.015387802265481</v>
       </c>
       <c r="F5">
-        <v>1.054252292793535</v>
+        <v>1.043489203831987</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04117241086476</v>
+        <v>1.054977551208603</v>
       </c>
       <c r="J5">
-        <v>1.035685803166516</v>
+        <v>1.029676037790602</v>
       </c>
       <c r="K5">
-        <v>1.051549811088887</v>
+        <v>1.054952766461609</v>
       </c>
       <c r="L5">
-        <v>1.033237995985909</v>
+        <v>1.025083956068847</v>
       </c>
       <c r="M5">
-        <v>1.056640170408564</v>
+        <v>1.052877455267925</v>
       </c>
       <c r="N5">
-        <v>1.037156595801834</v>
+        <v>1.031138295869757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031269310515782</v>
+        <v>1.011182491404371</v>
       </c>
       <c r="D6">
-        <v>1.049179540774152</v>
+        <v>1.045721204608685</v>
       </c>
       <c r="E6">
-        <v>1.030827263006107</v>
+        <v>1.015535431468397</v>
       </c>
       <c r="F6">
-        <v>1.05429097516241</v>
+        <v>1.043656246643164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041182525196682</v>
+        <v>1.055036701966351</v>
       </c>
       <c r="J6">
-        <v>1.035709886758095</v>
+        <v>1.029781678222156</v>
       </c>
       <c r="K6">
-        <v>1.051570982425352</v>
+        <v>1.055050344593853</v>
       </c>
       <c r="L6">
-        <v>1.033263562046881</v>
+        <v>1.025192978542022</v>
       </c>
       <c r="M6">
-        <v>1.056670221869626</v>
+        <v>1.053007111863366</v>
       </c>
       <c r="N6">
-        <v>1.037180713594876</v>
+        <v>1.031244086322841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030990579890181</v>
+        <v>1.009905028802156</v>
       </c>
       <c r="D7">
-        <v>1.04897445776643</v>
+        <v>1.044793396816474</v>
       </c>
       <c r="E7">
-        <v>1.03059075091255</v>
+        <v>1.014517515330799</v>
       </c>
       <c r="F7">
-        <v>1.054025047650207</v>
+        <v>1.042504346229289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041112880965428</v>
+        <v>1.054627795610667</v>
       </c>
       <c r="J7">
-        <v>1.035544272869779</v>
+        <v>1.029052713071048</v>
       </c>
       <c r="K7">
-        <v>1.051425366561091</v>
+        <v>1.054376838952091</v>
       </c>
       <c r="L7">
-        <v>1.033087777365292</v>
+        <v>1.024440884489444</v>
       </c>
       <c r="M7">
-        <v>1.056463589469555</v>
+        <v>1.05211264198658</v>
       </c>
       <c r="N7">
-        <v>1.037014864515843</v>
+        <v>1.030514085957605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029826557912735</v>
+        <v>1.004460872828227</v>
       </c>
       <c r="D8">
-        <v>1.048117704496247</v>
+        <v>1.040843411304019</v>
       </c>
       <c r="E8">
-        <v>1.029603831402106</v>
+        <v>1.010191477827273</v>
       </c>
       <c r="F8">
-        <v>1.052915015650669</v>
+        <v>1.037605773618208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040819388817003</v>
+        <v>1.052863553732862</v>
       </c>
       <c r="J8">
-        <v>1.034851778427493</v>
+        <v>1.025940461282107</v>
       </c>
       <c r="K8">
-        <v>1.050815784399343</v>
+        <v>1.051497157079144</v>
       </c>
       <c r="L8">
-        <v>1.032353342947382</v>
+        <v>1.021235146278531</v>
       </c>
       <c r="M8">
-        <v>1.055600087993976</v>
+        <v>1.048299350454129</v>
       </c>
       <c r="N8">
-        <v>1.036321386652018</v>
+        <v>1.027397414414144</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027779358726037</v>
+        <v>0.9944445253374189</v>
       </c>
       <c r="D9">
-        <v>1.046609846067927</v>
+        <v>1.033596094594031</v>
       </c>
       <c r="E9">
-        <v>1.02787112511815</v>
+        <v>1.002281145848878</v>
       </c>
       <c r="F9">
-        <v>1.050964779796188</v>
+        <v>1.028637109979901</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040293258221432</v>
+        <v>1.049537837868439</v>
       </c>
       <c r="J9">
-        <v>1.033630626330165</v>
+        <v>1.020194998604007</v>
       </c>
       <c r="K9">
-        <v>1.049738197224372</v>
+        <v>1.04616663960253</v>
       </c>
       <c r="L9">
-        <v>1.031060450367756</v>
+        <v>1.015337321154895</v>
       </c>
       <c r="M9">
-        <v>1.054079301062544</v>
+        <v>1.041282048768235</v>
       </c>
       <c r="N9">
-        <v>1.035098500378644</v>
+        <v>1.021643792520027</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026417296788199</v>
+        <v>0.9874533024978239</v>
       </c>
       <c r="D10">
-        <v>1.04560595519979</v>
+        <v>1.028555631235807</v>
       </c>
       <c r="E10">
-        <v>1.026720366639369</v>
+        <v>0.9967958060514545</v>
       </c>
       <c r="F10">
-        <v>1.0496686201824</v>
+        <v>1.022410660154971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039936526772612</v>
+        <v>1.047165483089856</v>
       </c>
       <c r="J10">
-        <v>1.032815994440163</v>
+        <v>1.016173714895578</v>
       </c>
       <c r="K10">
-        <v>1.049017580290001</v>
+        <v>1.042427760389332</v>
       </c>
       <c r="L10">
-        <v>1.030199451216849</v>
+        <v>1.011223155213727</v>
       </c>
       <c r="M10">
-        <v>1.053066082850552</v>
+        <v>1.036386738617182</v>
       </c>
       <c r="N10">
-        <v>1.034282711617919</v>
+        <v>1.017616798127484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025828174340049</v>
+        <v>0.9843445980335132</v>
       </c>
       <c r="D11">
-        <v>1.045171601029418</v>
+        <v>1.026319681237167</v>
       </c>
       <c r="E11">
-        <v>1.026223134110194</v>
+        <v>0.9943659030867489</v>
       </c>
       <c r="F11">
-        <v>1.049108340045995</v>
+        <v>1.019650871988654</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039780649989896</v>
+        <v>1.046099159045036</v>
       </c>
       <c r="J11">
-        <v>1.032463137986732</v>
+        <v>1.014383481101349</v>
       </c>
       <c r="K11">
-        <v>1.048705033652389</v>
+        <v>1.040761749013651</v>
       </c>
       <c r="L11">
-        <v>1.02982686461728</v>
+        <v>1.009394858161344</v>
       </c>
       <c r="M11">
-        <v>1.05262751947718</v>
+        <v>1.034211478743402</v>
       </c>
       <c r="N11">
-        <v>1.033929354067851</v>
+        <v>1.015824021995925</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025609448359398</v>
+        <v>0.9831770045926357</v>
       </c>
       <c r="D12">
-        <v>1.045010314975294</v>
+        <v>1.025480779996729</v>
       </c>
       <c r="E12">
-        <v>1.02603859969004</v>
+        <v>0.993454702218276</v>
       </c>
       <c r="F12">
-        <v>1.048900373974792</v>
+        <v>1.018615739185498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039722539376374</v>
+        <v>1.045697001535483</v>
       </c>
       <c r="J12">
-        <v>1.03233205514863</v>
+        <v>1.01371081200723</v>
       </c>
       <c r="K12">
-        <v>1.048588863879165</v>
+        <v>1.040135565740185</v>
       </c>
       <c r="L12">
-        <v>1.029688505385443</v>
+        <v>1.008708383387181</v>
       </c>
       <c r="M12">
-        <v>1.052464644138104</v>
+        <v>1.033394775072677</v>
       </c>
       <c r="N12">
-        <v>1.033798085077083</v>
+        <v>1.015150397634536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025656361264345</v>
+        <v>0.9834280511021518</v>
       </c>
       <c r="D13">
-        <v>1.045044908980804</v>
+        <v>1.025661111727072</v>
       </c>
       <c r="E13">
-        <v>1.026078175688881</v>
+        <v>0.9936505550800101</v>
       </c>
       <c r="F13">
-        <v>1.04894497672486</v>
+        <v>1.018838239934653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039735013837893</v>
+        <v>1.045783544149667</v>
       </c>
       <c r="J13">
-        <v>1.032360173579499</v>
+        <v>1.013855455731504</v>
       </c>
       <c r="K13">
-        <v>1.048613786109802</v>
+        <v>1.04027022163585</v>
       </c>
       <c r="L13">
-        <v>1.029718182260939</v>
+        <v>1.008855973269438</v>
       </c>
       <c r="M13">
-        <v>1.052499580221281</v>
+        <v>1.033570361330989</v>
       </c>
       <c r="N13">
-        <v>1.033826243439349</v>
+        <v>1.015295246769489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025810092328274</v>
+        <v>0.9842483510611915</v>
       </c>
       <c r="D14">
-        <v>1.04515826799424</v>
+        <v>1.026250510225239</v>
       </c>
       <c r="E14">
-        <v>1.026207877166661</v>
+        <v>0.994290761360379</v>
       </c>
       <c r="F14">
-        <v>1.049091146497851</v>
+        <v>1.019565514816664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039775850849142</v>
+        <v>1.046066041792305</v>
       </c>
       <c r="J14">
-        <v>1.032452302963335</v>
+        <v>1.014328037091143</v>
       </c>
       <c r="K14">
-        <v>1.048695432566292</v>
+        <v>1.040710140197244</v>
       </c>
       <c r="L14">
-        <v>1.029815427058218</v>
+        <v>1.009338266127931</v>
       </c>
       <c r="M14">
-        <v>1.052614055598656</v>
+        <v>1.034144149761792</v>
       </c>
       <c r="N14">
-        <v>1.033918503657477</v>
+        <v>1.015768499248865</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025904824442802</v>
+        <v>0.984752037949325</v>
       </c>
       <c r="D15">
-        <v>1.045228119223177</v>
+        <v>1.026612538255145</v>
       </c>
       <c r="E15">
-        <v>1.02628781176154</v>
+        <v>0.9946840578727105</v>
       </c>
       <c r="F15">
-        <v>1.049181226042808</v>
+        <v>1.020012270436155</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039800983937912</v>
+        <v>1.04623928623003</v>
       </c>
       <c r="J15">
-        <v>1.032509064798502</v>
+        <v>1.014618179778909</v>
       </c>
       <c r="K15">
-        <v>1.048745727606166</v>
+        <v>1.040980205497867</v>
       </c>
       <c r="L15">
-        <v>1.029875347596526</v>
+        <v>1.009634436757183</v>
       </c>
       <c r="M15">
-        <v>1.05268459123167</v>
+        <v>1.034496513493502</v>
       </c>
       <c r="N15">
-        <v>1.03397534610096</v>
+        <v>1.016059053972528</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02645640890477</v>
+        <v>0.9876578467218556</v>
       </c>
       <c r="D16">
-        <v>1.045634789110624</v>
+        <v>1.02870286966968</v>
       </c>
       <c r="E16">
-        <v>1.026753388657601</v>
+        <v>0.9969558838081861</v>
       </c>
       <c r="F16">
-        <v>1.049705824631044</v>
+        <v>1.022592438003668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039946842164925</v>
+        <v>1.047235410857684</v>
       </c>
       <c r="J16">
-        <v>1.0328394100226</v>
+        <v>1.016291466415764</v>
       </c>
       <c r="K16">
-        <v>1.049038312246754</v>
+        <v>1.042537312944093</v>
       </c>
       <c r="L16">
-        <v>1.030224183547472</v>
+        <v>1.011343479018913</v>
       </c>
       <c r="M16">
-        <v>1.053095192505153</v>
+        <v>1.036529901973363</v>
       </c>
       <c r="N16">
-        <v>1.034306160453168</v>
+        <v>1.017734716868335</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026802580686808</v>
+        <v>0.9894583334198986</v>
       </c>
       <c r="D17">
-        <v>1.045889973911239</v>
+        <v>1.029999544650449</v>
       </c>
       <c r="E17">
-        <v>1.0270457159265</v>
+        <v>0.9983660123681888</v>
       </c>
       <c r="F17">
-        <v>1.050035151277513</v>
+        <v>1.024193543300347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040037958291679</v>
+        <v>1.047849649507744</v>
       </c>
       <c r="J17">
-        <v>1.033046596721445</v>
+        <v>1.017327727846642</v>
       </c>
       <c r="K17">
-        <v>1.049221705966429</v>
+        <v>1.043501253415653</v>
       </c>
       <c r="L17">
-        <v>1.030443062012951</v>
+        <v>1.012402752091278</v>
       </c>
       <c r="M17">
-        <v>1.053352797598092</v>
+        <v>1.037790265270254</v>
       </c>
       <c r="N17">
-        <v>1.03451364138089</v>
+        <v>1.018772449909306</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027004560364005</v>
+        <v>0.9905007129114639</v>
       </c>
       <c r="D18">
-        <v>1.046038851304879</v>
+        <v>1.030750745829449</v>
       </c>
       <c r="E18">
-        <v>1.027216327015157</v>
+        <v>0.9991832660745322</v>
       </c>
       <c r="F18">
-        <v>1.050227334973722</v>
+        <v>1.025121327514888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040090968719322</v>
+        <v>1.048204168577536</v>
       </c>
       <c r="J18">
-        <v>1.033167434002151</v>
+        <v>1.017927458452684</v>
       </c>
       <c r="K18">
-        <v>1.049328626667384</v>
+        <v>1.044058983784163</v>
       </c>
       <c r="L18">
-        <v>1.030570752394822</v>
+        <v>1.013016112317775</v>
       </c>
       <c r="M18">
-        <v>1.053503070279212</v>
+        <v>1.038520079320951</v>
       </c>
       <c r="N18">
-        <v>1.034634650264395</v>
+        <v>1.019373032201598</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027073440952229</v>
+        <v>0.9908548308706886</v>
       </c>
       <c r="D19">
-        <v>1.046089620093518</v>
+        <v>1.031006026543666</v>
       </c>
       <c r="E19">
-        <v>1.027274518161209</v>
+        <v>0.9994610498400065</v>
       </c>
       <c r="F19">
-        <v>1.050292880371476</v>
+        <v>1.02543665439194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040109020802801</v>
+        <v>1.048324419394698</v>
       </c>
       <c r="J19">
-        <v>1.033208634456137</v>
+        <v>1.01813116321407</v>
       </c>
       <c r="K19">
-        <v>1.049365075384815</v>
+        <v>1.044248397115601</v>
       </c>
       <c r="L19">
-        <v>1.030614295256874</v>
+        <v>1.013224499335298</v>
       </c>
       <c r="M19">
-        <v>1.053554312044414</v>
+        <v>1.038768033040797</v>
       </c>
       <c r="N19">
-        <v>1.034675909227751</v>
+        <v>1.019577026247111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026765433150005</v>
+        <v>0.9892659709888308</v>
       </c>
       <c r="D20">
-        <v>1.045862591631415</v>
+        <v>1.029860956494957</v>
       </c>
       <c r="E20">
-        <v>1.0270143414629</v>
+        <v>0.9982152648531318</v>
       </c>
       <c r="F20">
-        <v>1.049999808008588</v>
+        <v>1.02402239539726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040028196462226</v>
+        <v>1.047784137457402</v>
       </c>
       <c r="J20">
-        <v>1.033024368701511</v>
+        <v>1.017217035633073</v>
       </c>
       <c r="K20">
-        <v>1.049202034692724</v>
+        <v>1.043398301223595</v>
       </c>
       <c r="L20">
-        <v>1.030419576112199</v>
+        <v>1.012289569440623</v>
       </c>
       <c r="M20">
-        <v>1.053325157344472</v>
+        <v>1.037655594583336</v>
       </c>
       <c r="N20">
-        <v>1.034491381794618</v>
+        <v>1.018661600500097</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025764819581882</v>
+        <v>0.9840071541648729</v>
       </c>
       <c r="D21">
-        <v>1.045124885128864</v>
+        <v>1.026077181004099</v>
       </c>
       <c r="E21">
-        <v>1.026169678887805</v>
+        <v>0.9941024780985517</v>
       </c>
       <c r="F21">
-        <v>1.049048099072322</v>
+        <v>1.019351631013918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039763831186706</v>
+        <v>1.045983022761291</v>
       </c>
       <c r="J21">
-        <v>1.032425173595476</v>
+        <v>1.014189088929996</v>
       </c>
       <c r="K21">
-        <v>1.048671391808373</v>
+        <v>1.040580800473597</v>
       </c>
       <c r="L21">
-        <v>1.029786789885135</v>
+        <v>1.009196448912638</v>
       </c>
       <c r="M21">
-        <v>1.052580344705702</v>
+        <v>1.0339754270266</v>
       </c>
       <c r="N21">
-        <v>1.033891335762804</v>
+        <v>1.015629353765391</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025136275209615</v>
+        <v>0.9806258445338356</v>
       </c>
       <c r="D22">
-        <v>1.0446613639532</v>
+        <v>1.023649558164936</v>
       </c>
       <c r="E22">
-        <v>1.025639531815348</v>
+        <v>0.9914664742872404</v>
       </c>
       <c r="F22">
-        <v>1.048450572831547</v>
+        <v>1.01635669091166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039596393631674</v>
+        <v>1.044815317472282</v>
       </c>
       <c r="J22">
-        <v>1.032048342437198</v>
+        <v>1.012240586333253</v>
       </c>
       <c r="K22">
-        <v>1.048337316288082</v>
+        <v>1.038766633558663</v>
       </c>
       <c r="L22">
-        <v>1.029389141071249</v>
+        <v>1.007208898892384</v>
       </c>
       <c r="M22">
-        <v>1.052112206255297</v>
+        <v>1.031610936465229</v>
       </c>
       <c r="N22">
-        <v>1.033513969461058</v>
+        <v>1.013678084071465</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025469422969199</v>
+        <v>0.9824256650475948</v>
       </c>
       <c r="D23">
-        <v>1.044907055877491</v>
+        <v>1.024941216532878</v>
       </c>
       <c r="E23">
-        <v>1.025920484516861</v>
+        <v>0.9928687640955557</v>
       </c>
       <c r="F23">
-        <v>1.048767251517928</v>
+        <v>1.017950045627508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039685270894593</v>
+        <v>1.045437755890428</v>
       </c>
       <c r="J23">
-        <v>1.032248116248614</v>
+        <v>1.013277880595161</v>
       </c>
       <c r="K23">
-        <v>1.048514457247175</v>
+        <v>1.03973250376029</v>
       </c>
       <c r="L23">
-        <v>1.029599922016912</v>
+        <v>1.008266706814934</v>
       </c>
       <c r="M23">
-        <v>1.052360360108077</v>
+        <v>1.032869325100938</v>
       </c>
       <c r="N23">
-        <v>1.033714026974201</v>
+        <v>1.014716851410204</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026782218326703</v>
+        <v>0.9893529153919389</v>
       </c>
       <c r="D24">
-        <v>1.045874964405064</v>
+        <v>1.029923594337343</v>
       </c>
       <c r="E24">
-        <v>1.027028517918959</v>
+        <v>0.9982833973625787</v>
       </c>
       <c r="F24">
-        <v>1.050015777823241</v>
+        <v>1.024099748627353</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04003260783327</v>
+        <v>1.047813751125056</v>
       </c>
       <c r="J24">
-        <v>1.033034412621699</v>
+        <v>1.01726706718956</v>
       </c>
       <c r="K24">
-        <v>1.04921092344845</v>
+        <v>1.043444834834823</v>
       </c>
       <c r="L24">
-        <v>1.030430188311118</v>
+        <v>1.012340725678466</v>
       </c>
       <c r="M24">
-        <v>1.053337646736102</v>
+        <v>1.037716462928789</v>
       </c>
       <c r="N24">
-        <v>1.034501439978325</v>
+        <v>1.018711703107132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028308131971289</v>
+        <v>0.9970870244329918</v>
       </c>
       <c r="D25">
-        <v>1.046999433611614</v>
+        <v>1.03550529539881</v>
       </c>
       <c r="E25">
-        <v>1.028318306330372</v>
+        <v>1.004362054295629</v>
       </c>
       <c r="F25">
-        <v>1.051468265944262</v>
+        <v>1.030997713647813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040430332608112</v>
+        <v>1.050424249971098</v>
       </c>
       <c r="J25">
-        <v>1.033946421814584</v>
+        <v>1.021712821084541</v>
       </c>
       <c r="K25">
-        <v>1.050017177275407</v>
+        <v>1.047576351688901</v>
       </c>
       <c r="L25">
-        <v>1.03139453559044</v>
+        <v>1.016893030295823</v>
       </c>
       <c r="M25">
-        <v>1.054472354992832</v>
+        <v>1.043133159168246</v>
       </c>
       <c r="N25">
-        <v>1.035414744328873</v>
+        <v>1.02316377048258</v>
       </c>
     </row>
   </sheetData>
